--- a/medicine/Mort/Cimetière_de_Lourmarin/Cimetière_de_Lourmarin.xlsx
+++ b/medicine/Mort/Cimetière_de_Lourmarin/Cimetière_de_Lourmarin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lourmarin</t>
+          <t>Cimetière_de_Lourmarin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Lourmarin est le cimetière communal de la commune de Lourmarin dans le Vaucluse. Il se trouve avenue Henri-Bosco[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Lourmarin est le cimetière communal de la commune de Lourmarin dans le Vaucluse. Il se trouve avenue Henri-Bosco.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lourmarin</t>
+          <t>Cimetière_de_Lourmarin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit cimetière méditerranéen du Luberon avec ses murets de pierres accueille la sépulture de deux écrivains d'adoption lourmarinoise[2]. Albert Camus, mort en 1960 dans un accident de voiture dans l'Yonne[3] et son épouse la pianiste Francine née Faure reposent sous deux parcelles d'iris et de romarin ombragées par un laurier-rose. La dépouille d'Henri Bosco mort en 1976 se trouve sous un simple dalle. Sa stèle montre des caractères grecs ésotériques signifiant que l'âme humaine passe par le cœur pour rejoindre le paradis[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit cimetière méditerranéen du Luberon avec ses murets de pierres accueille la sépulture de deux écrivains d'adoption lourmarinoise. Albert Camus, mort en 1960 dans un accident de voiture dans l'Yonne et son épouse la pianiste Francine née Faure reposent sous deux parcelles d'iris et de romarin ombragées par un laurier-rose. La dépouille d'Henri Bosco mort en 1976 se trouve sous un simple dalle. Sa stèle montre des caractères grecs ésotériques signifiant que l'âme humaine passe par le cœur pour rejoindre le paradis.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lourmarin</t>
+          <t>Cimetière_de_Lourmarin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Bosco (1888-1976), écrivain
 Albert Camus (1913-1960), écrivain prix Nobel de littérature
